--- a/MO_Models/Acceleration model results.xlsx
+++ b/MO_Models/Acceleration model results.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arthu\Documents\STUF-2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arthu\Documents\STUF-2020\MO_Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{91E1FC09-8060-4A46-B2B6-CED982576400}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45210D9F-BD1E-4C4C-A3AF-7A3038A73166}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{661A09F1-9978-4B95-883B-4EDECF600BFE}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="29">
   <si>
     <t>Fait avec le fichier acceleration12_14_10</t>
   </si>
@@ -141,12 +141,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -161,12 +173,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -484,7 +498,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="A11:H11"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -627,7 +641,7 @@
         <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="3">
         <v>0.6</v>
       </c>
       <c r="H11">
@@ -651,7 +665,7 @@
         <f t="shared" si="0"/>
         <v>0.44999999999999996</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="4">
         <v>0.55000000000000004</v>
       </c>
       <c r="H12">
@@ -662,7 +676,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13">
+      <c r="A13" s="3">
         <v>205</v>
       </c>
       <c r="B13">
@@ -698,7 +712,7 @@
       <c r="C14">
         <v>0.42</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="3">
         <v>1.55</v>
       </c>
       <c r="E14">
@@ -713,10 +727,10 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15">
+      <c r="A15" s="4">
         <v>210</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="3">
         <v>0.35</v>
       </c>
       <c r="C15">
@@ -749,7 +763,7 @@
       <c r="C16">
         <v>0.42</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="3">
         <v>1.5</v>
       </c>
       <c r="E16">
@@ -776,7 +790,7 @@
       <c r="C17">
         <v>0.42</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="4">
         <v>1.55</v>
       </c>
       <c r="E17">
@@ -807,7 +821,7 @@
         <f t="shared" si="0"/>
         <v>0.43000000000000005</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="3">
         <v>0.56999999999999995</v>
       </c>
       <c r="G18">
@@ -845,7 +859,7 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20">
+      <c r="A20" s="3">
         <v>205</v>
       </c>
       <c r="B20">
@@ -872,7 +886,7 @@
       <c r="A21">
         <v>205</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="4">
         <v>0.3</v>
       </c>
       <c r="C21">
@@ -893,10 +907,10 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22">
+      <c r="A22" s="3">
         <v>200</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="4">
         <v>0.28999999999999998</v>
       </c>
       <c r="C22">
@@ -923,7 +937,7 @@
       <c r="B23">
         <v>0.28999999999999998</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="4">
         <v>0.38</v>
       </c>
       <c r="D23">
@@ -941,7 +955,7 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24">
+      <c r="A24" s="3">
         <v>190</v>
       </c>
       <c r="B24">
